--- a/pics3_labeling-100v2.xlsx
+++ b/pics3_labeling-100v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7626" uniqueCount="5779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8376" uniqueCount="5779">
   <si>
     <t>Name</t>
   </si>
@@ -17681,9 +17681,9 @@
   <dimension ref="A1:AB5750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19853,6 +19853,9 @@
       <c r="C27" t="s">
         <v>5760</v>
       </c>
+      <c r="D27" t="s">
+        <v>5761</v>
+      </c>
       <c r="E27" t="s">
         <v>5761</v>
       </c>
@@ -19896,6 +19899,33 @@
         <v>5760</v>
       </c>
       <c r="S27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="T27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X27" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB27" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -19906,6 +19936,9 @@
       <c r="C28" t="s">
         <v>5760</v>
       </c>
+      <c r="D28" t="s">
+        <v>5760</v>
+      </c>
       <c r="E28" t="s">
         <v>5760</v>
       </c>
@@ -19949,6 +19982,33 @@
         <v>5760</v>
       </c>
       <c r="S28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="T28" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W28" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB28" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -19959,6 +20019,9 @@
       <c r="C29" t="s">
         <v>5760</v>
       </c>
+      <c r="D29" t="s">
+        <v>5761</v>
+      </c>
       <c r="E29" t="s">
         <v>5761</v>
       </c>
@@ -20002,6 +20065,33 @@
         <v>5760</v>
       </c>
       <c r="S29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="T29" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U29" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB29" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -20012,6 +20102,9 @@
       <c r="C30" t="s">
         <v>5761</v>
       </c>
+      <c r="D30" t="s">
+        <v>5761</v>
+      </c>
       <c r="E30" t="s">
         <v>5761</v>
       </c>
@@ -20055,6 +20148,33 @@
         <v>5761</v>
       </c>
       <c r="S30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="T30" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U30" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB30" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -20065,6 +20185,9 @@
       <c r="C31" t="s">
         <v>5761</v>
       </c>
+      <c r="D31" t="s">
+        <v>5761</v>
+      </c>
       <c r="E31" t="s">
         <v>5761</v>
       </c>
@@ -20108,6 +20231,33 @@
         <v>5761</v>
       </c>
       <c r="S31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="T31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W31" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB31" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -20118,6 +20268,9 @@
       <c r="C32" t="s">
         <v>5760</v>
       </c>
+      <c r="D32" t="s">
+        <v>5760</v>
+      </c>
       <c r="E32" t="s">
         <v>5761</v>
       </c>
@@ -20163,14 +20316,44 @@
       <c r="S32" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V32" t="s">
+        <v>5760</v>
+      </c>
+      <c r="W32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>5761</v>
       </c>
+      <c r="D33" t="s">
+        <v>5761</v>
+      </c>
       <c r="E33" t="s">
         <v>5761</v>
       </c>
@@ -20216,14 +20399,44 @@
       <c r="S33" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W33" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>5761</v>
       </c>
+      <c r="D34" t="s">
+        <v>5761</v>
+      </c>
       <c r="E34" t="s">
         <v>5761</v>
       </c>
@@ -20269,14 +20482,44 @@
       <c r="S34" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>5760</v>
       </c>
+      <c r="D35" t="s">
+        <v>5761</v>
+      </c>
       <c r="E35" t="s">
         <v>5761</v>
       </c>
@@ -20322,14 +20565,44 @@
       <c r="S35" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>5760</v>
       </c>
+      <c r="D36" t="s">
+        <v>5760</v>
+      </c>
       <c r="E36" t="s">
         <v>5761</v>
       </c>
@@ -20375,14 +20648,44 @@
       <c r="S36" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W36" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>5761</v>
       </c>
+      <c r="D37" t="s">
+        <v>5761</v>
+      </c>
       <c r="E37" t="s">
         <v>5760</v>
       </c>
@@ -20428,14 +20731,44 @@
       <c r="S37" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>5760</v>
       </c>
+      <c r="D38" t="s">
+        <v>5760</v>
+      </c>
       <c r="E38" t="s">
         <v>5760</v>
       </c>
@@ -20481,14 +20814,44 @@
       <c r="S38" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W38" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>5760</v>
       </c>
+      <c r="D39" t="s">
+        <v>5761</v>
+      </c>
       <c r="E39" t="s">
         <v>5761</v>
       </c>
@@ -20534,14 +20897,44 @@
       <c r="S39" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W39" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>5760</v>
       </c>
+      <c r="D40" t="s">
+        <v>5761</v>
+      </c>
       <c r="E40" t="s">
         <v>5761</v>
       </c>
@@ -20587,14 +20980,44 @@
       <c r="S40" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U40" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>5761</v>
       </c>
+      <c r="D41" t="s">
+        <v>5761</v>
+      </c>
       <c r="E41" t="s">
         <v>5761</v>
       </c>
@@ -20640,14 +21063,44 @@
       <c r="S41" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>5760</v>
       </c>
+      <c r="D42" t="s">
+        <v>5760</v>
+      </c>
       <c r="E42" t="s">
         <v>5760</v>
       </c>
@@ -20693,14 +21146,44 @@
       <c r="S42" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U42" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V42" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W42" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X42" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>5760</v>
       </c>
+      <c r="D43" t="s">
+        <v>5761</v>
+      </c>
       <c r="E43" t="s">
         <v>5761</v>
       </c>
@@ -20746,14 +21229,44 @@
       <c r="S43" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>5760</v>
       </c>
+      <c r="D44" t="s">
+        <v>5761</v>
+      </c>
       <c r="E44" t="s">
         <v>5761</v>
       </c>
@@ -20799,14 +21312,44 @@
       <c r="S44" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U44" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V44" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W44" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X44" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>5760</v>
       </c>
+      <c r="D45" t="s">
+        <v>5760</v>
+      </c>
       <c r="E45" t="s">
         <v>5761</v>
       </c>
@@ -20852,14 +21395,44 @@
       <c r="S45" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U45" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V45" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W45" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X45" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>5760</v>
       </c>
+      <c r="D46" t="s">
+        <v>5761</v>
+      </c>
       <c r="E46" t="s">
         <v>5761</v>
       </c>
@@ -20905,14 +21478,44 @@
       <c r="S46" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X46" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>5760</v>
       </c>
+      <c r="D47" t="s">
+        <v>5761</v>
+      </c>
       <c r="E47" t="s">
         <v>5761</v>
       </c>
@@ -20958,14 +21561,44 @@
       <c r="S47" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X47" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>5760</v>
       </c>
+      <c r="D48" t="s">
+        <v>5761</v>
+      </c>
       <c r="E48" t="s">
         <v>5761</v>
       </c>
@@ -21011,14 +21644,44 @@
       <c r="S48" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W48" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>5761</v>
       </c>
+      <c r="D49" t="s">
+        <v>5761</v>
+      </c>
       <c r="E49" t="s">
         <v>5761</v>
       </c>
@@ -21064,14 +21727,44 @@
       <c r="S49" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U49" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V49" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W49" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X49" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>5761</v>
       </c>
+      <c r="D50" t="s">
+        <v>5761</v>
+      </c>
       <c r="E50" t="s">
         <v>5761</v>
       </c>
@@ -21117,14 +21810,44 @@
       <c r="S50" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>5760</v>
       </c>
+      <c r="D51" t="s">
+        <v>5761</v>
+      </c>
       <c r="E51" t="s">
         <v>5761</v>
       </c>
@@ -21170,14 +21893,44 @@
       <c r="S51" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W51" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>5761</v>
       </c>
+      <c r="D52" t="s">
+        <v>5761</v>
+      </c>
       <c r="E52" t="s">
         <v>5761</v>
       </c>
@@ -21223,14 +21976,44 @@
       <c r="S52" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W52" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>5760</v>
       </c>
+      <c r="D53" t="s">
+        <v>5760</v>
+      </c>
       <c r="E53" t="s">
         <v>5760</v>
       </c>
@@ -21276,14 +22059,44 @@
       <c r="S53" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U53" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V53" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W53" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X53" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>5760</v>
       </c>
+      <c r="D54" t="s">
+        <v>5760</v>
+      </c>
       <c r="E54" t="s">
         <v>5760</v>
       </c>
@@ -21329,14 +22142,44 @@
       <c r="S54" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X54" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
         <v>5760</v>
       </c>
+      <c r="D55" t="s">
+        <v>5761</v>
+      </c>
       <c r="E55" t="s">
         <v>5761</v>
       </c>
@@ -21382,14 +22225,44 @@
       <c r="S55" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U55" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V55" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W55" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X55" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>5760</v>
       </c>
+      <c r="D56" t="s">
+        <v>5761</v>
+      </c>
       <c r="E56" t="s">
         <v>5761</v>
       </c>
@@ -21435,14 +22308,44 @@
       <c r="S56" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W56" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>5761</v>
       </c>
+      <c r="D57" t="s">
+        <v>5761</v>
+      </c>
       <c r="E57" t="s">
         <v>5761</v>
       </c>
@@ -21488,14 +22391,44 @@
       <c r="S57" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X57" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>5761</v>
       </c>
+      <c r="D58" t="s">
+        <v>5761</v>
+      </c>
       <c r="E58" t="s">
         <v>5761</v>
       </c>
@@ -21541,14 +22474,44 @@
       <c r="S58" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W58" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>5761</v>
       </c>
+      <c r="D59" t="s">
+        <v>5761</v>
+      </c>
       <c r="E59" t="s">
         <v>5761</v>
       </c>
@@ -21594,14 +22557,44 @@
       <c r="S59" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U59" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V59" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W59" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X59" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>5760</v>
       </c>
+      <c r="D60" t="s">
+        <v>5761</v>
+      </c>
       <c r="E60" t="s">
         <v>5760</v>
       </c>
@@ -21647,14 +22640,44 @@
       <c r="S60" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U60" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V60" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W60" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X60" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>5760</v>
       </c>
+      <c r="D61" t="s">
+        <v>5761</v>
+      </c>
       <c r="E61" t="s">
         <v>5760</v>
       </c>
@@ -21700,14 +22723,44 @@
       <c r="S61" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W61" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>5760</v>
       </c>
+      <c r="D62" t="s">
+        <v>5761</v>
+      </c>
       <c r="E62" t="s">
         <v>5761</v>
       </c>
@@ -21753,14 +22806,44 @@
       <c r="S62" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U62" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V62" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W62" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X62" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>5760</v>
       </c>
+      <c r="D63" t="s">
+        <v>5761</v>
+      </c>
       <c r="E63" t="s">
         <v>5760</v>
       </c>
@@ -21806,14 +22889,44 @@
       <c r="S63" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>5760</v>
       </c>
+      <c r="D64" t="s">
+        <v>5761</v>
+      </c>
       <c r="E64" t="s">
         <v>5761</v>
       </c>
@@ -21859,14 +22972,44 @@
       <c r="S64" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="C65" t="s">
         <v>5760</v>
       </c>
+      <c r="D65" t="s">
+        <v>5761</v>
+      </c>
       <c r="E65" t="s">
         <v>5760</v>
       </c>
@@ -21912,14 +23055,44 @@
       <c r="S65" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U65" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V65" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W65" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X65" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>5760</v>
       </c>
+      <c r="D66" t="s">
+        <v>5761</v>
+      </c>
       <c r="E66" t="s">
         <v>5760</v>
       </c>
@@ -21965,14 +23138,44 @@
       <c r="S66" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X66" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>5760</v>
       </c>
+      <c r="D67" t="s">
+        <v>5761</v>
+      </c>
       <c r="E67" t="s">
         <v>5761</v>
       </c>
@@ -22018,14 +23221,44 @@
       <c r="S67" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>5760</v>
       </c>
+      <c r="D68" t="s">
+        <v>5760</v>
+      </c>
       <c r="E68" t="s">
         <v>5760</v>
       </c>
@@ -22071,14 +23304,44 @@
       <c r="S68" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V68" t="s">
+        <v>5760</v>
+      </c>
+      <c r="W68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X68" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>5760</v>
       </c>
+      <c r="D69" t="s">
+        <v>5761</v>
+      </c>
       <c r="E69" t="s">
         <v>5761</v>
       </c>
@@ -22124,14 +23387,44 @@
       <c r="S69" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>5760</v>
       </c>
+      <c r="D70" t="s">
+        <v>5760</v>
+      </c>
       <c r="E70" t="s">
         <v>5761</v>
       </c>
@@ -22177,14 +23470,44 @@
       <c r="S70" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U70" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>5761</v>
       </c>
+      <c r="D71" t="s">
+        <v>5761</v>
+      </c>
       <c r="E71" t="s">
         <v>5761</v>
       </c>
@@ -22230,14 +23553,44 @@
       <c r="S71" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U71" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V71" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W71" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X71" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>5760</v>
       </c>
+      <c r="D72" t="s">
+        <v>5761</v>
+      </c>
       <c r="E72" t="s">
         <v>5760</v>
       </c>
@@ -22283,14 +23636,44 @@
       <c r="S72" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>5761</v>
       </c>
+      <c r="D73" t="s">
+        <v>5761</v>
+      </c>
       <c r="E73" t="s">
         <v>5761</v>
       </c>
@@ -22336,14 +23719,44 @@
       <c r="S73" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X73" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>5760</v>
       </c>
+      <c r="D74" t="s">
+        <v>5761</v>
+      </c>
       <c r="E74" t="s">
         <v>5761</v>
       </c>
@@ -22389,14 +23802,44 @@
       <c r="S74" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>5760</v>
       </c>
+      <c r="D75" t="s">
+        <v>5761</v>
+      </c>
       <c r="E75" t="s">
         <v>5760</v>
       </c>
@@ -22442,14 +23885,44 @@
       <c r="S75" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V75" t="s">
+        <v>5760</v>
+      </c>
+      <c r="W75" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>5760</v>
       </c>
+      <c r="D76" t="s">
+        <v>5761</v>
+      </c>
       <c r="E76" t="s">
         <v>5761</v>
       </c>
@@ -22495,14 +23968,44 @@
       <c r="S76" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U76" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V76" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W76" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X76" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>5760</v>
       </c>
+      <c r="D77" t="s">
+        <v>5760</v>
+      </c>
       <c r="E77" t="s">
         <v>5761</v>
       </c>
@@ -22548,14 +24051,44 @@
       <c r="S77" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W77" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>5760</v>
       </c>
+      <c r="D78" t="s">
+        <v>5760</v>
+      </c>
       <c r="E78" t="s">
         <v>5761</v>
       </c>
@@ -22601,14 +24134,44 @@
       <c r="S78" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>5760</v>
       </c>
+      <c r="D79" t="s">
+        <v>5761</v>
+      </c>
       <c r="E79" t="s">
         <v>5761</v>
       </c>
@@ -22654,14 +24217,44 @@
       <c r="S79" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>5760</v>
       </c>
+      <c r="D80" t="s">
+        <v>5761</v>
+      </c>
       <c r="E80" t="s">
         <v>5761</v>
       </c>
@@ -22707,14 +24300,44 @@
       <c r="S80" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X80" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>5760</v>
       </c>
+      <c r="D81" t="s">
+        <v>5761</v>
+      </c>
       <c r="E81" t="s">
         <v>5761</v>
       </c>
@@ -22760,14 +24383,44 @@
       <c r="S81" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>5760</v>
       </c>
+      <c r="D82" t="s">
+        <v>5761</v>
+      </c>
       <c r="E82" t="s">
         <v>5761</v>
       </c>
@@ -22813,14 +24466,44 @@
       <c r="S82" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U82" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V82" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W82" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X82" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>5760</v>
       </c>
+      <c r="D83" t="s">
+        <v>5761</v>
+      </c>
       <c r="E83" t="s">
         <v>5761</v>
       </c>
@@ -22866,14 +24549,44 @@
       <c r="S83" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W83" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>5760</v>
       </c>
+      <c r="D84" t="s">
+        <v>5760</v>
+      </c>
       <c r="E84" t="s">
         <v>5761</v>
       </c>
@@ -22919,14 +24632,44 @@
       <c r="S84" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U84" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V84" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W84" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X84" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>5760</v>
       </c>
+      <c r="D85" t="s">
+        <v>5760</v>
+      </c>
       <c r="E85" t="s">
         <v>5761</v>
       </c>
@@ -22972,14 +24715,44 @@
       <c r="S85" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U85" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V85" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W85" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X85" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>5761</v>
       </c>
+      <c r="D86" t="s">
+        <v>5760</v>
+      </c>
       <c r="E86" t="s">
         <v>5760</v>
       </c>
@@ -23025,14 +24798,44 @@
       <c r="S86" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W86" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>5760</v>
       </c>
+      <c r="D87" t="s">
+        <v>5761</v>
+      </c>
       <c r="E87" t="s">
         <v>5761</v>
       </c>
@@ -23078,14 +24881,44 @@
       <c r="S87" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W87" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>5761</v>
       </c>
+      <c r="D88" t="s">
+        <v>5761</v>
+      </c>
       <c r="E88" t="s">
         <v>5761</v>
       </c>
@@ -23131,14 +24964,44 @@
       <c r="S88" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>5761</v>
       </c>
+      <c r="D89" t="s">
+        <v>5761</v>
+      </c>
       <c r="E89" t="s">
         <v>5761</v>
       </c>
@@ -23184,14 +25047,44 @@
       <c r="S89" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U89" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V89" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W89" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X89" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>5760</v>
       </c>
+      <c r="D90" t="s">
+        <v>5760</v>
+      </c>
       <c r="E90" t="s">
         <v>5761</v>
       </c>
@@ -23237,14 +25130,44 @@
       <c r="S90" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U90" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V90" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W90" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X90" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>5760</v>
       </c>
+      <c r="D91" t="s">
+        <v>5761</v>
+      </c>
       <c r="E91" t="s">
         <v>5761</v>
       </c>
@@ -23290,14 +25213,44 @@
       <c r="S91" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>5761</v>
       </c>
+      <c r="D92" t="s">
+        <v>5761</v>
+      </c>
       <c r="E92" t="s">
         <v>5761</v>
       </c>
@@ -23343,14 +25296,44 @@
       <c r="S92" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>5760</v>
       </c>
+      <c r="D93" t="s">
+        <v>5761</v>
+      </c>
       <c r="E93" t="s">
         <v>5761</v>
       </c>
@@ -23396,14 +25379,44 @@
       <c r="S93" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U93" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V93" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W93" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X93" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>5761</v>
       </c>
+      <c r="D94" t="s">
+        <v>5761</v>
+      </c>
       <c r="E94" t="s">
         <v>5761</v>
       </c>
@@ -23449,14 +25462,44 @@
       <c r="S94" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U94" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V94" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W94" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X94" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>5760</v>
       </c>
+      <c r="D95" t="s">
+        <v>5761</v>
+      </c>
       <c r="E95" t="s">
         <v>5761</v>
       </c>
@@ -23502,14 +25545,44 @@
       <c r="S95" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U95" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V95" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W95" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X95" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>5760</v>
       </c>
+      <c r="D96" t="s">
+        <v>5761</v>
+      </c>
       <c r="E96" t="s">
         <v>5761</v>
       </c>
@@ -23555,14 +25628,44 @@
       <c r="S96" t="s">
         <v>5760</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X96" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>5760</v>
       </c>
+      <c r="D97" t="s">
+        <v>5761</v>
+      </c>
       <c r="E97" t="s">
         <v>5760</v>
       </c>
@@ -23608,14 +25711,44 @@
       <c r="S97" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U97" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V97" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W97" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X97" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>5760</v>
       </c>
+      <c r="D98" t="s">
+        <v>5760</v>
+      </c>
       <c r="E98" t="s">
         <v>5761</v>
       </c>
@@ -23661,14 +25794,44 @@
       <c r="S98" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="U98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="V98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X98" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>5761</v>
       </c>
+      <c r="D99" t="s">
+        <v>5761</v>
+      </c>
       <c r="E99" t="s">
         <v>5761</v>
       </c>
@@ -23714,14 +25877,44 @@
       <c r="S99" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U99" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V99" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W99" t="s">
+        <v>5760</v>
+      </c>
+      <c r="X99" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>5760</v>
       </c>
+      <c r="D100" t="s">
+        <v>5761</v>
+      </c>
       <c r="E100" t="s">
         <v>5761</v>
       </c>
@@ -23767,14 +25960,44 @@
       <c r="S100" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T100" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U100" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V100" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W100" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X100" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>5761</v>
       </c>
+      <c r="D101" t="s">
+        <v>5761</v>
+      </c>
       <c r="E101" t="s">
         <v>5761</v>
       </c>
@@ -23820,58 +26043,85 @@
       <c r="S101" t="s">
         <v>5761</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T101" t="s">
+        <v>5760</v>
+      </c>
+      <c r="U101" t="s">
+        <v>5760</v>
+      </c>
+      <c r="V101" t="s">
+        <v>5761</v>
+      </c>
+      <c r="W101" t="s">
+        <v>5761</v>
+      </c>
+      <c r="X101" t="s">
+        <v>5761</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>5760</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>5760</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>5761</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
